--- a/data/trans_orig/P2A_senso_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9092</v>
+        <v>7627</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004655815071285103</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01840222263462505</v>
+        <v>0.015437531593188</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>5711</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1954</v>
+        <v>1943</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0122168822208113</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00417935748682526</v>
+        <v>0.004156748919455618</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02500585348337883</v>
+        <v>0.02500937684577892</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>8012</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3709</v>
+        <v>3580</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15380</v>
+        <v>15110</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008331864718175236</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003857117310822528</v>
+        <v>0.00372340143809322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01599545106901238</v>
+        <v>0.01571411897947106</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>491764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>484972</v>
+        <v>486437</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9953441849287149</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9815977773653755</v>
+        <v>0.9845624684068124</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>461778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>455799</v>
+        <v>455797</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>465535</v>
+        <v>465546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9877831177791887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9749941465166212</v>
+        <v>0.974990623154221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9958206425131747</v>
+        <v>0.9958432510805444</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>980</v>
@@ -857,19 +857,19 @@
         <v>953541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>946173</v>
+        <v>946443</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>957844</v>
+        <v>957973</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9916681352818247</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9840045489309875</v>
+        <v>0.9842858810205289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9961428826891775</v>
+        <v>0.9962765985619068</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5361</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1866</v>
+        <v>1888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12152</v>
+        <v>12191</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007289206818086568</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002536804783768858</v>
+        <v>0.002566603925289041</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01652296644961164</v>
+        <v>0.01657507653956839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>5097</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1905</v>
+        <v>1956</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11042</v>
+        <v>11381</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008148146623916445</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003045971060546325</v>
+        <v>0.003127068004253556</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01765303170927911</v>
+        <v>0.01819479534565446</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1003,19 +1003,19 @@
         <v>10458</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5349</v>
+        <v>5357</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18617</v>
+        <v>18871</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007683966903147067</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00393014108789173</v>
+        <v>0.00393625321857613</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01367883565865453</v>
+        <v>0.01386549034770705</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>730128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>723337</v>
+        <v>723298</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>733623</v>
+        <v>733601</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9927107931819135</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9834770335503883</v>
+        <v>0.9834249234604315</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974631952162312</v>
+        <v>0.9974333960747109</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>586</v>
@@ -1053,19 +1053,19 @@
         <v>620397</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>614452</v>
+        <v>614113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>623589</v>
+        <v>623538</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9918518533760835</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9823469682907211</v>
+        <v>0.9818052046543446</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9969540289394537</v>
+        <v>0.9968729319957463</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1284</v>
@@ -1074,19 +1074,19 @@
         <v>1350524</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1342365</v>
+        <v>1342111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1355633</v>
+        <v>1355625</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9923160330968529</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9863211643413455</v>
+        <v>0.9861345096522929</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9960698589121083</v>
+        <v>0.9960637467814238</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>5382</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14781</v>
+        <v>13175</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008427640841196116</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002569905008619284</v>
+        <v>0.002585276826498345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02314411385814945</v>
+        <v>0.02062862980639419</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1199,19 +1199,19 @@
         <v>6341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2382</v>
+        <v>2953</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14676</v>
+        <v>13531</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009193511194723709</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00345287919732267</v>
+        <v>0.004280664621488496</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02127704533199655</v>
+        <v>0.01961769845151686</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1220,19 +1220,19 @@
         <v>11724</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5874</v>
+        <v>6247</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20310</v>
+        <v>21857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008825299655283177</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00442194717192442</v>
+        <v>0.004702305821541868</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01528916365422821</v>
+        <v>0.01645377681178723</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>633286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>623887</v>
+        <v>625493</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>637027</v>
+        <v>637017</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9915723591588039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9768558861418504</v>
+        <v>0.9793713701936058</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9974300949913807</v>
+        <v>0.9974147231735017</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>652</v>
@@ -1270,19 +1270,19 @@
         <v>683403</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>675068</v>
+        <v>676213</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>687362</v>
+        <v>686791</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9908064888052763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9787229546680049</v>
+        <v>0.9803823015484833</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9965471208026774</v>
+        <v>0.9957193353785115</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1261</v>
@@ -1291,19 +1291,19 @@
         <v>1316688</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1308102</v>
+        <v>1306555</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1322538</v>
+        <v>1322165</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9911747003447168</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9847108363457718</v>
+        <v>0.9835462231882131</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9955780528280755</v>
+        <v>0.9952976941784581</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>6179</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2153</v>
+        <v>2050</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13583</v>
+        <v>12355</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01190156563581408</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004147095023570486</v>
+        <v>0.003949129780056466</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0261642912226446</v>
+        <v>0.02379913364799988</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1416,19 +1416,19 @@
         <v>10292</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5208</v>
+        <v>5193</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18002</v>
+        <v>18232</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01996024222352941</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0100999518248147</v>
+        <v>0.0100708184659697</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03491206258470279</v>
+        <v>0.03535800167998922</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1437,19 +1437,19 @@
         <v>16471</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9811</v>
+        <v>10049</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25335</v>
+        <v>25950</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01591725569519215</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009481307094109609</v>
+        <v>0.009711268460846056</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02448315145481797</v>
+        <v>0.02507763279834379</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>512968</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>505564</v>
+        <v>506792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>516994</v>
+        <v>517097</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9880984343641859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9738357087773555</v>
+        <v>0.9762008663520001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9958529049764295</v>
+        <v>0.9960508702199435</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>492</v>
@@ -1487,19 +1487,19 @@
         <v>505350</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>497640</v>
+        <v>497410</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>510434</v>
+        <v>510449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9800397577764706</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9650879374152966</v>
+        <v>0.9646419983200106</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9899000481751853</v>
+        <v>0.9899291815340302</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>970</v>
@@ -1508,19 +1508,19 @@
         <v>1018318</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1009454</v>
+        <v>1008839</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1024978</v>
+        <v>1024740</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9840827443048078</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9755168485451821</v>
+        <v>0.9749223672016563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9905186929058905</v>
+        <v>0.990288731539154</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>12754</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7694</v>
+        <v>6672</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22698</v>
+        <v>20902</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03298165458346206</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01989578518656841</v>
+        <v>0.01725213200691332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.058694021760857</v>
+        <v>0.05405176911708365</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1633,19 +1633,19 @@
         <v>8345</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3616</v>
+        <v>3882</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15188</v>
+        <v>16882</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02065553623782926</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008952039305956812</v>
+        <v>0.009608705431011416</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03759494782209025</v>
+        <v>0.04178880155182606</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1654,19 +1654,19 @@
         <v>21099</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13553</v>
+        <v>13349</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32600</v>
+        <v>31690</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02668393852352069</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01714065968794257</v>
+        <v>0.01688209176550945</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04122966848030289</v>
+        <v>0.04007876523274011</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>373956</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>364012</v>
+        <v>365808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>379016</v>
+        <v>380038</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.967018345416538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.941305978239143</v>
+        <v>0.9459482308829164</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9801042148134316</v>
+        <v>0.9827478679930867</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>388</v>
@@ -1704,19 +1704,19 @@
         <v>395641</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>388798</v>
+        <v>387104</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>400370</v>
+        <v>400104</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9793444637621708</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9624050521779097</v>
+        <v>0.958211198448174</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9910479606940432</v>
+        <v>0.9903912945689886</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>767</v>
@@ -1725,19 +1725,19 @@
         <v>769597</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>758096</v>
+        <v>759006</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>777143</v>
+        <v>777347</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9733160614764793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9587703315196968</v>
+        <v>0.9599212347672604</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9828593403120574</v>
+        <v>0.9831179082344906</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>13493</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7907</v>
+        <v>7329</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21792</v>
+        <v>21330</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04611825704365735</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02702444879551581</v>
+        <v>0.02505009365869229</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07448217121505077</v>
+        <v>0.07290131621426203</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1850,19 +1850,19 @@
         <v>5561</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1864</v>
+        <v>1909</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11925</v>
+        <v>11923</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01621666960071196</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005436863234822453</v>
+        <v>0.005566815191893958</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03477381089652897</v>
+        <v>0.03476867456780806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1871,19 +1871,19 @@
         <v>19055</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11874</v>
+        <v>12494</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28286</v>
+        <v>28955</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02998293576808989</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01868363437740019</v>
+        <v>0.01965924537217376</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04450796302305077</v>
+        <v>0.04556101826597189</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>279090</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>270791</v>
+        <v>271253</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284676</v>
+        <v>285254</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9538817429563426</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9255178287849491</v>
+        <v>0.9270986837857383</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9729755512044841</v>
+        <v>0.9749499063413085</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>365</v>
@@ -1921,19 +1921,19 @@
         <v>337373</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>331009</v>
+        <v>331011</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>341070</v>
+        <v>341025</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.983783330399288</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.965226189103471</v>
+        <v>0.9652313254321917</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9945631367651775</v>
+        <v>0.9944331848081061</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>653</v>
@@ -1942,19 +1942,19 @@
         <v>616462</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>607231</v>
+        <v>606562</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>623643</v>
+        <v>623023</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9700170642319101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9554920369769494</v>
+        <v>0.954438981734027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9813163656225998</v>
+        <v>0.9803407546278261</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>5244</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1878</v>
+        <v>1768</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11717</v>
+        <v>11479</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02498420766113274</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008948892556715108</v>
+        <v>0.008421466776474288</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05582421587125011</v>
+        <v>0.05469173017618117</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2067,19 +2067,19 @@
         <v>14672</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7940</v>
+        <v>7931</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24655</v>
+        <v>24523</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04393886413820744</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0237779145890322</v>
+        <v>0.02375308994157442</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07383718872635484</v>
+        <v>0.07344336201088138</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2088,19 +2088,19 @@
         <v>19915</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12227</v>
+        <v>12135</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29569</v>
+        <v>31483</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03662307498288699</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02248518570945997</v>
+        <v>0.02231578083717092</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05437609873044659</v>
+        <v>0.05789598784170508</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>204639</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>198166</v>
+        <v>198404</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>208005</v>
+        <v>208115</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9750157923388673</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9441757841287499</v>
+        <v>0.9453082698238189</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9910511074432848</v>
+        <v>0.9915785332235257</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>277</v>
@@ -2138,19 +2138,19 @@
         <v>319236</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>309253</v>
+        <v>309385</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>325968</v>
+        <v>325977</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9560611358617925</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9261628112736453</v>
+        <v>0.9265566379891182</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9762220854109679</v>
+        <v>0.9762469100584255</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>492</v>
@@ -2159,19 +2159,19 @@
         <v>523876</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>514222</v>
+        <v>512308</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>531564</v>
+        <v>531656</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.963376925017113</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9456239012695533</v>
+        <v>0.9421040121582949</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.97751481429054</v>
+        <v>0.9776842191628291</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>50714</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37969</v>
+        <v>38186</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66501</v>
+        <v>67842</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0154779089904101</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01158815509514749</v>
+        <v>0.01165436120412931</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02029598510543221</v>
+        <v>0.02070527561807825</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -2284,19 +2284,19 @@
         <v>56019</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>43275</v>
+        <v>43180</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72757</v>
+        <v>71752</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01657752320685429</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01280627484275531</v>
+        <v>0.01277823175217347</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02153072434883496</v>
+        <v>0.02123348667878827</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>104</v>
@@ -2305,19 +2305,19 @@
         <v>106733</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>87703</v>
+        <v>88075</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>130048</v>
+        <v>130146</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01603619598013469</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01317702365222394</v>
+        <v>0.0132329115412512</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01953924179082834</v>
+        <v>0.01955395868376882</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3225829</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3210042</v>
+        <v>3208701</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3238574</v>
+        <v>3238357</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9845220910095899</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9797040148945682</v>
+        <v>0.9792947243819218</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9884118449048527</v>
+        <v>0.9883456387958707</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3243</v>
@@ -2355,19 +2355,19 @@
         <v>3323178</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3306440</v>
+        <v>3307445</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3335922</v>
+        <v>3336017</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9834224767931458</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9784692756511651</v>
+        <v>0.9787665133212117</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9871937251572447</v>
+        <v>0.9872217682478264</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6407</v>
@@ -2376,19 +2376,19 @@
         <v>6549008</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6525693</v>
+        <v>6525595</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6568038</v>
+        <v>6567666</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9839638040198653</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9804607582091717</v>
+        <v>0.9804460413162313</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9868229763477762</v>
+        <v>0.9867670884587489</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>6067</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2111</v>
+        <v>2826</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12498</v>
+        <v>12176</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01335949779492454</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004647765924814952</v>
+        <v>0.006222384350941437</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02751916114127749</v>
+        <v>0.02681176504404673</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6774</v>
+        <v>7081</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004440202793461502</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0157443719000726</v>
+        <v>0.01645903635545878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2765,19 +2765,19 @@
         <v>7977</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3077</v>
+        <v>3765</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15044</v>
+        <v>15920</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009020453394770193</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003479660585151512</v>
+        <v>0.004256923416613695</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01701115209006162</v>
+        <v>0.01800154681768787</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>448079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>441648</v>
+        <v>441970</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>452035</v>
+        <v>451320</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9866405022050755</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9724808388587227</v>
+        <v>0.9731882349559533</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9953522340751851</v>
+        <v>0.9937776156490586</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>419</v>
@@ -2815,7 +2815,7 @@
         <v>428320</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>423456</v>
+        <v>423149</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -2824,7 +2824,7 @@
         <v>0.9955597972065385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9842556280999274</v>
+        <v>0.9835409636445424</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2836,19 +2836,19 @@
         <v>876399</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>869332</v>
+        <v>868456</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>881299</v>
+        <v>880611</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9909795466052298</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9829888479099383</v>
+        <v>0.981998453182312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9965203394148484</v>
+        <v>0.9957430765833846</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>4687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1800</v>
+        <v>1827</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10459</v>
+        <v>10627</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006821321299103243</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002619048286197563</v>
+        <v>0.002658950696905132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01522164291349071</v>
+        <v>0.01546636491974468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -2961,19 +2961,19 @@
         <v>14501</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8069</v>
+        <v>7166</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26610</v>
+        <v>24648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02376216106868399</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01322267338877199</v>
+        <v>0.01174246445352867</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04360393062170126</v>
+        <v>0.04038901428244613</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -2982,19 +2982,19 @@
         <v>19188</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10897</v>
+        <v>11022</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29923</v>
+        <v>30942</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01479010325717688</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008399545642618623</v>
+        <v>0.008496051135926025</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02306500739638843</v>
+        <v>0.02385063560974498</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>682400</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>676628</v>
+        <v>676460</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>685287</v>
+        <v>685260</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9931786787008967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9847783570865093</v>
+        <v>0.9845336350802553</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9973809517138025</v>
+        <v>0.9973410493030949</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>559</v>
@@ -3032,19 +3032,19 @@
         <v>595754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>583645</v>
+        <v>585607</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>602186</v>
+        <v>603089</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.976237838931316</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9563960693782968</v>
+        <v>0.9596109857175543</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9867773266112279</v>
+        <v>0.9882575355464713</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1221</v>
@@ -3053,19 +3053,19 @@
         <v>1278154</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1267419</v>
+        <v>1266400</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1286445</v>
+        <v>1286320</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9852098967428231</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9769349926036116</v>
+        <v>0.976149364390255</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9916004543573814</v>
+        <v>0.9915039488640739</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>7280</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2128</v>
+        <v>2835</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15581</v>
+        <v>15908</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01067611635465601</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003120248788751855</v>
+        <v>0.004157541396250393</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02285072652076327</v>
+        <v>0.02333038333176318</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3178,19 +3178,19 @@
         <v>11569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5722</v>
+        <v>5961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21009</v>
+        <v>20491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01627510695814466</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008050017234274724</v>
+        <v>0.008385959745987406</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02955405596973916</v>
+        <v>0.02882615058740759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -3199,19 +3199,19 @@
         <v>18849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11191</v>
+        <v>11319</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30063</v>
+        <v>30405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01353387850728958</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008035662727523438</v>
+        <v>0.008127145689840413</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02158608203548312</v>
+        <v>0.02183132773414135</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>674583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>666282</v>
+        <v>665955</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>679735</v>
+        <v>679028</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.989323883645344</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9771492734792367</v>
+        <v>0.9766696166682368</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9968797512112481</v>
+        <v>0.9958424586037495</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>656</v>
@@ -3249,19 +3249,19 @@
         <v>699281</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>689841</v>
+        <v>690359</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>705128</v>
+        <v>704889</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9837248930418553</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9704459440302604</v>
+        <v>0.9711738494125917</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9919499827657253</v>
+        <v>0.9916140402540126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1301</v>
@@ -3270,19 +3270,19 @@
         <v>1373863</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1362649</v>
+        <v>1362307</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1381521</v>
+        <v>1381393</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9864661214927104</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9784139179645168</v>
+        <v>0.9781686722658587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9919643372724766</v>
+        <v>0.9918728543101596</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>15071</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8240</v>
+        <v>7617</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26732</v>
+        <v>26276</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0245203021909844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01340713107181491</v>
+        <v>0.01239247703690997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0434929556314007</v>
+        <v>0.04275225129280723</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -3395,19 +3395,19 @@
         <v>14803</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8261</v>
+        <v>8423</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23835</v>
+        <v>25063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02402318572617059</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01340651747442594</v>
+        <v>0.01366888630378747</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03868027022705781</v>
+        <v>0.04067283720028778</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -3416,19 +3416,19 @@
         <v>29874</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19179</v>
+        <v>19947</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44021</v>
+        <v>43488</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02427142439512564</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01558230196228896</v>
+        <v>0.01620619307014548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03576551845520081</v>
+        <v>0.03533247011187043</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>599546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>587885</v>
+        <v>588341</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>606377</v>
+        <v>607000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9754796978090156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9565070443685992</v>
+        <v>0.9572477487071929</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9865928689281852</v>
+        <v>0.9876075229630902</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>526</v>
@@ -3466,19 +3466,19 @@
         <v>601396</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>592364</v>
+        <v>591136</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>607938</v>
+        <v>607776</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9759768142738294</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9613197297729421</v>
+        <v>0.9593271627997122</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.986593482525574</v>
+        <v>0.9863311136962125</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1062</v>
@@ -3487,19 +3487,19 @@
         <v>1200942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1186795</v>
+        <v>1187328</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1211637</v>
+        <v>1210869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9757285756048744</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9642344815447991</v>
+        <v>0.9646675298881295</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.984417698037711</v>
+        <v>0.9837938069298544</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>8334</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3190</v>
+        <v>4094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16542</v>
+        <v>16822</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01940737042911488</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007427923989189319</v>
+        <v>0.009533032334966334</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03852072359195565</v>
+        <v>0.03917258855701636</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -3612,19 +3612,19 @@
         <v>11859</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6234</v>
+        <v>5468</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20824</v>
+        <v>20397</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02648226243708917</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01392241105020623</v>
+        <v>0.01220969572582554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0465039970365161</v>
+        <v>0.04554987593403553</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -3633,19 +3633,19 @@
         <v>20193</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12683</v>
+        <v>12096</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31279</v>
+        <v>31038</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02301889725221406</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01445824229836748</v>
+        <v>0.01378887263971755</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03565634540465343</v>
+        <v>0.03538165686854885</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>421095</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>412887</v>
+        <v>412607</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>426239</v>
+        <v>425335</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9805926295708851</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9614792764080412</v>
+        <v>0.9608274114429836</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9925720760108104</v>
+        <v>0.9904669676650336</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>395</v>
@@ -3683,19 +3683,19 @@
         <v>435941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>426976</v>
+        <v>427403</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>441566</v>
+        <v>442332</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9735177375629108</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9534960029634838</v>
+        <v>0.954450124065964</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9860775889497938</v>
+        <v>0.9877903042741745</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>780</v>
@@ -3704,19 +3704,19 @@
         <v>857036</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>845950</v>
+        <v>846191</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>864546</v>
+        <v>865133</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9769811027477859</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9643436545953465</v>
+        <v>0.9646183431314511</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9855417577016324</v>
+        <v>0.9862111273602824</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>5950</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1957</v>
+        <v>1970</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14032</v>
+        <v>14818</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01920825163950473</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006318756079252183</v>
+        <v>0.00636052743482759</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04529640586972043</v>
+        <v>0.04783260934062163</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -3829,19 +3829,19 @@
         <v>11566</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6484</v>
+        <v>5899</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20106</v>
+        <v>21014</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03267321775734379</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01831758318408648</v>
+        <v>0.01666390412606069</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0567971743652264</v>
+        <v>0.0593618328362234</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -3850,19 +3850,19 @@
         <v>17517</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9893</v>
+        <v>9862</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28145</v>
+        <v>28332</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02638913758812738</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01490464409041012</v>
+        <v>0.01485690659556498</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04240168324838584</v>
+        <v>0.04268206721913365</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>303836</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>295754</v>
+        <v>294968</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>307829</v>
+        <v>307816</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9807917483604953</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9547035941302796</v>
+        <v>0.9521673906593796</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9936812439207479</v>
+        <v>0.9936394725651724</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>333</v>
@@ -3900,19 +3900,19 @@
         <v>342430</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>333890</v>
+        <v>332982</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>347512</v>
+        <v>348097</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9673267822426562</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9432028256347736</v>
+        <v>0.9406381671637777</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9816824168159137</v>
+        <v>0.9833360958739393</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>610</v>
@@ -3921,19 +3921,19 @@
         <v>646265</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>635637</v>
+        <v>635450</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>653889</v>
+        <v>653920</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9736108624118727</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9575983167516142</v>
+        <v>0.9573179327808662</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9850953559095899</v>
+        <v>0.985143093404435</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>10303</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5020</v>
+        <v>5159</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17607</v>
+        <v>18486</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04123703263394009</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02009086517210826</v>
+        <v>0.020648620862071</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0704687357988948</v>
+        <v>0.07398678026801545</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -4046,19 +4046,19 @@
         <v>11690</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6262</v>
+        <v>6102</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20446</v>
+        <v>20229</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03005185739687808</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01609763904145233</v>
+        <v>0.01568607960653489</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05256208253357907</v>
+        <v>0.05200586859461625</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -4067,19 +4067,19 @@
         <v>21993</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13728</v>
+        <v>14198</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31947</v>
+        <v>32352</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03442645819890002</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02148895965014585</v>
+        <v>0.02222505187751607</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05000812246910839</v>
+        <v>0.05064297698400453</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>239548</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>232244</v>
+        <v>231365</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244831</v>
+        <v>244692</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9587629673660599</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9295312642011052</v>
+        <v>0.9260132197319846</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9799091348278918</v>
+        <v>0.979351379137929</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>339</v>
@@ -4117,19 +4117,19 @@
         <v>377289</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>368533</v>
+        <v>368750</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>382717</v>
+        <v>382877</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9699481426031219</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9474379174664209</v>
+        <v>0.947994131405384</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9839023609585477</v>
+        <v>0.9843139203934653</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>551</v>
@@ -4138,19 +4138,19 @@
         <v>616837</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>606883</v>
+        <v>606478</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>625102</v>
+        <v>624632</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9655735418011</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9499918775308918</v>
+        <v>0.9493570230159986</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9785110403498543</v>
+        <v>0.9777749481224842</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>57692</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43081</v>
+        <v>42723</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74954</v>
+        <v>74190</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01683560297391015</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0125718933395672</v>
+        <v>0.01246725238067391</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02187300770635209</v>
+        <v>0.02165003313676651</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>71</v>
@@ -4263,19 +4263,19 @@
         <v>77898</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61021</v>
+        <v>60992</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97802</v>
+        <v>96095</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02189185900668097</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01714892008005007</v>
+        <v>0.01714078227121765</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02748566565721942</v>
+        <v>0.02700577716035648</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>123</v>
@@ -4284,19 +4284,19 @@
         <v>135590</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>111119</v>
+        <v>111703</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>157691</v>
+        <v>160544</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01941133601082412</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01590796817744232</v>
+        <v>0.01599169309993089</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02257536967603089</v>
+        <v>0.02298382892787317</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3369087</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3351825</v>
+        <v>3352589</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3383698</v>
+        <v>3384056</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9831643970260898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9781269922936482</v>
+        <v>0.9783499668632335</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9874281066604328</v>
+        <v>0.9875327476193262</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3227</v>
@@ -4334,19 +4334,19 @@
         <v>3480411</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3460507</v>
+        <v>3462214</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3497288</v>
+        <v>3497317</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.978108140993319</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9725143343427808</v>
+        <v>0.9729942228396435</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9828510799199501</v>
+        <v>0.9828592177287824</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6384</v>
@@ -4355,19 +4355,19 @@
         <v>6849498</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6827397</v>
+        <v>6824544</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6873969</v>
+        <v>6873385</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9805886639891759</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9774246303239692</v>
+        <v>0.9770161710721269</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9840920318225579</v>
+        <v>0.9840083069000691</v>
       </c>
     </row>
     <row r="27">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5057</v>
+        <v>5083</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002400266256888213</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01205699666643594</v>
+        <v>0.01211838655049476</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5559</v>
+        <v>4097</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002249149397127391</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0140467087604644</v>
+        <v>0.01035219814955367</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6691</v>
+        <v>5848</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002326905201104092</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008207109146319317</v>
+        <v>0.00717368858532564</v>
       </c>
     </row>
     <row r="5">
@@ -4773,7 +4773,7 @@
         <v>418456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414406</v>
+        <v>414380</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4782,7 +4782,7 @@
         <v>0.9975997337431118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.987943003333564</v>
+        <v>0.9878816134495052</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4794,7 +4794,7 @@
         <v>394865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390196</v>
+        <v>391658</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -4803,7 +4803,7 @@
         <v>0.9977508506028726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9859532912395338</v>
+        <v>0.9896478018504453</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>813321</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>808527</v>
+        <v>809370</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4824,7 +4824,7 @@
         <v>0.9976730947988959</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9917928908536808</v>
+        <v>0.9928263114146745</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9324</v>
+        <v>7421</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003691240000410407</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01579090827302277</v>
+        <v>0.0125668487061802</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4940,19 +4940,19 @@
         <v>4532</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1667</v>
+        <v>1481</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10027</v>
+        <v>9283</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008041205841741046</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002957902553068096</v>
+        <v>0.002627386700840233</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0177919788396574</v>
+        <v>0.0164732142178451</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -4961,19 +4961,19 @@
         <v>6711</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2869</v>
+        <v>2932</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13187</v>
+        <v>13634</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005815426241365286</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002486059857949101</v>
+        <v>0.002540591691409444</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0114266450575818</v>
+        <v>0.01181417483122537</v>
       </c>
     </row>
     <row r="8">
@@ -4990,7 +4990,7 @@
         <v>588316</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>581172</v>
+        <v>583075</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4999,7 +4999,7 @@
         <v>0.9963087599995896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9842090917269748</v>
+        <v>0.9874331512938208</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -5011,19 +5011,19 @@
         <v>559012</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>553517</v>
+        <v>554261</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>561877</v>
+        <v>562063</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9919587941582589</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.982208021160343</v>
+        <v>0.9835267857821549</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9970420974469318</v>
+        <v>0.9973726132991597</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1139</v>
@@ -5032,19 +5032,19 @@
         <v>1147329</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1140853</v>
+        <v>1140406</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1151171</v>
+        <v>1151108</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9941845737586347</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9885733549424176</v>
+        <v>0.9881858251687746</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9975139401420509</v>
+        <v>0.9974594083085905</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>5499</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1981</v>
+        <v>1953</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13006</v>
+        <v>13370</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008218636592062267</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002960855456586647</v>
+        <v>0.002918202572694942</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01943840458995449</v>
+        <v>0.0199823795082438</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5157,19 +5157,19 @@
         <v>4690</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1832</v>
+        <v>1842</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9423</v>
+        <v>10586</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007090501606279163</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002769258581770781</v>
+        <v>0.002785293119442342</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01424728868541672</v>
+        <v>0.01600568634051601</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5178,19 +5178,19 @@
         <v>10189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5083</v>
+        <v>5212</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18126</v>
+        <v>18491</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007657837981475256</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003820652817903464</v>
+        <v>0.003917353208862357</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01362348592337781</v>
+        <v>0.01389768752487205</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>663598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>656091</v>
+        <v>655727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667116</v>
+        <v>667144</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9917813634079378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9805615954100455</v>
+        <v>0.9800176204917563</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970391445434135</v>
+        <v>0.9970817974273051</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>660</v>
@@ -5228,19 +5228,19 @@
         <v>656696</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>651963</v>
+        <v>650800</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659554</v>
+        <v>659544</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9929094983937209</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9857527113145834</v>
+        <v>0.983994313659484</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972307414182292</v>
+        <v>0.9972147068805577</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1293</v>
@@ -5249,19 +5249,19 @@
         <v>1320294</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1312357</v>
+        <v>1311992</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1325400</v>
+        <v>1325271</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9923421620185248</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9863765140766223</v>
+        <v>0.9861023124751278</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9961793471820966</v>
+        <v>0.9960826467911376</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>12522</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6493</v>
+        <v>6438</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22196</v>
+        <v>21827</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01938313979402978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01005089200354447</v>
+        <v>0.009964651455286192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03435677925656801</v>
+        <v>0.03378593458492581</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -5374,19 +5374,19 @@
         <v>6047</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2056</v>
+        <v>2075</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12443</v>
+        <v>12163</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009315804625706485</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003166827884024376</v>
+        <v>0.003197220718403693</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01917060046576047</v>
+        <v>0.01873828874341282</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -5395,19 +5395,19 @@
         <v>18569</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11010</v>
+        <v>10599</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29509</v>
+        <v>28264</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01433770101525112</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008500872387097893</v>
+        <v>0.008183940025457033</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02278495177973509</v>
+        <v>0.0218230405197373</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>633526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>623852</v>
+        <v>624221</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639555</v>
+        <v>639610</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9806168602059702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9656432207434312</v>
+        <v>0.9662140654150744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9899491079964555</v>
+        <v>0.9900353485447139</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>596</v>
@@ -5445,19 +5445,19 @@
         <v>643030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>636634</v>
+        <v>636914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>647021</v>
+        <v>647002</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9906841953742935</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9808293995342393</v>
+        <v>0.9812617112565872</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9968331721159757</v>
+        <v>0.9968027792815962</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1167</v>
@@ -5466,19 +5466,19 @@
         <v>1276556</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1265616</v>
+        <v>1266861</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1284115</v>
+        <v>1284526</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9856622989847489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9772150482202651</v>
+        <v>0.978176959480263</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9914991276129024</v>
+        <v>0.991816059974543</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>5744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1686</v>
+        <v>1930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14561</v>
+        <v>14404</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0120179420617121</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003528538489407455</v>
+        <v>0.004039309333300482</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03046738596177813</v>
+        <v>0.03013806013380664</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5591,19 +5591,19 @@
         <v>3301</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8730</v>
+        <v>8907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006644816651051075</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001933264002040782</v>
+        <v>0.001946758964971691</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01757121230786825</v>
+        <v>0.0179266789097102</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -5612,19 +5612,19 @@
         <v>9045</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4075</v>
+        <v>3505</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19232</v>
+        <v>18195</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009279203475977802</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004180506800115867</v>
+        <v>0.003595787574282557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01972947209365108</v>
+        <v>0.01866584954274739</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>472174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>463357</v>
+        <v>463514</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476232</v>
+        <v>475988</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9879820579382879</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9695326140382221</v>
+        <v>0.9698619398661935</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9964714615105926</v>
+        <v>0.9959606906666996</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>430</v>
@@ -5662,19 +5662,19 @@
         <v>493548</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>488119</v>
+        <v>487942</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>495888</v>
+        <v>495882</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9933551833489489</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9824287876921318</v>
+        <v>0.9820733210902899</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9980667359979591</v>
+        <v>0.9980532410350283</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>850</v>
@@ -5683,19 +5683,19 @@
         <v>965722</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>955535</v>
+        <v>956572</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>970692</v>
+        <v>971262</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9907207965240222</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9802705279063489</v>
+        <v>0.9813341504572524</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9958194931998842</v>
+        <v>0.9964042124257174</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>3629</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9772</v>
+        <v>11397</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01085591138925748</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002827514152781281</v>
+        <v>0.002832672995593555</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02922992756588506</v>
+        <v>0.03408834453757805</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5808,19 +5808,19 @@
         <v>5977</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2069</v>
+        <v>2715</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12859</v>
+        <v>13412</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01582169034402694</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005476831893035924</v>
+        <v>0.0071862475305036</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03403865787394066</v>
+        <v>0.0355038306149471</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -5829,19 +5829,19 @@
         <v>9606</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4785</v>
+        <v>4808</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17470</v>
+        <v>17249</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01349023756915027</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006719953581215702</v>
+        <v>0.006751672636824885</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02453350130918234</v>
+        <v>0.02422259162793549</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>330701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>324558</v>
+        <v>322933</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>333385</v>
+        <v>333383</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9891440886107425</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9707700724341161</v>
+        <v>0.9659116554624211</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9971724858472187</v>
+        <v>0.9971673270044065</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>348</v>
@@ -5879,19 +5879,19 @@
         <v>371785</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>364903</v>
+        <v>364350</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>375693</v>
+        <v>375047</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9841783096559731</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9659613421260593</v>
+        <v>0.9644961693850534</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9945231681069641</v>
+        <v>0.9928137524694972</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>670</v>
@@ -5900,19 +5900,19 @@
         <v>702486</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>694622</v>
+        <v>694843</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>707307</v>
+        <v>707284</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9865097624308498</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9754664986908181</v>
+        <v>0.9757774083720648</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9932800464187846</v>
+        <v>0.9932483273631753</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>3871</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1360</v>
+        <v>911</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10234</v>
+        <v>10245</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01506230051580235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005292818376131938</v>
+        <v>0.0035463090012199</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03982307481122918</v>
+        <v>0.03986265510323311</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -6025,19 +6025,19 @@
         <v>12286</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6004</v>
+        <v>5175</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22289</v>
+        <v>22560</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03070079256372973</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01500340368791526</v>
+        <v>0.01293323513078283</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0557001896613396</v>
+        <v>0.05637600812696228</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -6046,19 +6046,19 @@
         <v>16156</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9354</v>
+        <v>8887</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28794</v>
+        <v>27392</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02458505456569105</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01423397075477162</v>
+        <v>0.01352277745301726</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04381572339087405</v>
+        <v>0.04168215858195843</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>253127</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>246764</v>
+        <v>246753</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>255638</v>
+        <v>256087</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9849376994841976</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9601769251887705</v>
+        <v>0.9601373448967666</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9947071816238681</v>
+        <v>0.9964536909987801</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>292</v>
@@ -6096,19 +6096,19 @@
         <v>387883</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>377880</v>
+        <v>377609</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>394165</v>
+        <v>394994</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9692992074362703</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9442998103386606</v>
+        <v>0.9436239918730377</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9849965963120847</v>
+        <v>0.9870667648692172</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>590</v>
@@ -6117,19 +6117,19 @@
         <v>641011</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>628373</v>
+        <v>629775</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>647813</v>
+        <v>648280</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.975414945434309</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.956184276609126</v>
+        <v>0.9583178414180417</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9857660292452285</v>
+        <v>0.9864772225469829</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>34452</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23754</v>
+        <v>23513</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50363</v>
+        <v>46996</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01014981351233429</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006997990975262458</v>
+        <v>0.00692705366627222</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01483742541476609</v>
+        <v>0.01384535907345087</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -6242,19 +6242,19 @@
         <v>37722</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25996</v>
+        <v>26634</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51595</v>
+        <v>52318</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01064220077667661</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007334009598550106</v>
+        <v>0.007514045091118662</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01455612697937936</v>
+        <v>0.01476010044607623</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -6263,19 +6263,19 @@
         <v>72174</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56262</v>
+        <v>57494</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93267</v>
+        <v>92270</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0104013359819414</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008108270407287193</v>
+        <v>0.008285745208464814</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01344116120552604</v>
+        <v>0.01329757760866854</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3359898</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3343987</v>
+        <v>3347354</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3370596</v>
+        <v>3370837</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9898501864876658</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9851625745852339</v>
+        <v>0.9861546409265493</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9930020090247378</v>
+        <v>0.9930729463337278</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3303</v>
@@ -6313,19 +6313,19 @@
         <v>3506820</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3492947</v>
+        <v>3492224</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3518546</v>
+        <v>3517908</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9893577992233233</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9854438730206208</v>
+        <v>0.9852398995539238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.99266599040145</v>
+        <v>0.9924859549088814</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6504</v>
@@ -6334,19 +6334,19 @@
         <v>6866718</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6845625</v>
+        <v>6846622</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6882630</v>
+        <v>6881398</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9895986640180586</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9865588387944739</v>
+        <v>0.9867024223913314</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9918917295927128</v>
+        <v>0.9917142547915352</v>
       </c>
     </row>
     <row r="27">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9304</v>
+        <v>9715</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004389890651665036</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02281434315406128</v>
+        <v>0.02382427682586665</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6702,19 +6702,19 @@
         <v>7323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1657</v>
+        <v>1706</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22209</v>
+        <v>19823</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02020132188289362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004571464788056675</v>
+        <v>0.004707140966140833</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06126455657213599</v>
+        <v>0.05468299926474348</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6723,19 +6723,19 @@
         <v>9113</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2550</v>
+        <v>2601</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23037</v>
+        <v>24401</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01183088205469428</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003310552868546464</v>
+        <v>0.003376062411125067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02990609270330913</v>
+        <v>0.03167655895888283</v>
       </c>
     </row>
     <row r="5">
@@ -6752,7 +6752,7 @@
         <v>406003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>398489</v>
+        <v>398078</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6761,7 +6761,7 @@
         <v>0.995610109348335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9771856568459386</v>
+        <v>0.9761757231741328</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,19 +6773,19 @@
         <v>355189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>340303</v>
+        <v>342689</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360855</v>
+        <v>360806</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9797986781171064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9387354434278641</v>
+        <v>0.9453170007352565</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9954285352119433</v>
+        <v>0.9952928590338591</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -6794,19 +6794,19 @@
         <v>761192</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>747268</v>
+        <v>745904</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>767755</v>
+        <v>767704</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9881691179453058</v>
+        <v>0.9881691179453057</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9700939072966908</v>
+        <v>0.9683234410411153</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9966894471314536</v>
+        <v>0.9966239375888749</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>13189</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6014</v>
+        <v>5168</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28050</v>
+        <v>26800</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02765675127970491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01261011577446717</v>
+        <v>0.01083603770263126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.058817902799061</v>
+        <v>0.05619676592909578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -6919,19 +6919,19 @@
         <v>6054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2739</v>
+        <v>2401</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12327</v>
+        <v>12624</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01206544482292518</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005459038510247745</v>
+        <v>0.004785842231552636</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02456981383976901</v>
+        <v>0.02515988104990638</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -6940,19 +6940,19 @@
         <v>19243</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10299</v>
+        <v>10332</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35376</v>
+        <v>34146</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01966320538322421</v>
+        <v>0.01966320538322422</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01052422652068205</v>
+        <v>0.01055740553766601</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03614902921852463</v>
+        <v>0.0348921583737699</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>463701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448840</v>
+        <v>450090</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470876</v>
+        <v>471722</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.972343248720295</v>
+        <v>0.9723432487202951</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9411820972009395</v>
+        <v>0.9438032340709055</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9873898842255331</v>
+        <v>0.9891639622973688</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>455</v>
@@ -6990,19 +6990,19 @@
         <v>495679</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>489406</v>
+        <v>489109</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498994</v>
+        <v>499332</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9879345551770746</v>
+        <v>0.9879345551770748</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9754301861602309</v>
+        <v>0.9748401189500943</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9945409614897522</v>
+        <v>0.9952141577684475</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>750</v>
@@ -7011,19 +7011,19 @@
         <v>959380</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>943247</v>
+        <v>944477</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>968324</v>
+        <v>968291</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9803367946167758</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9638509707814752</v>
+        <v>0.9651078416262299</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9894757734793179</v>
+        <v>0.989442594462334</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>7251</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2681</v>
+        <v>2764</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14248</v>
+        <v>15329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01167922106535455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004317801945132555</v>
+        <v>0.004451290595150064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02295023427225406</v>
+        <v>0.02469031932165145</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -7136,19 +7136,19 @@
         <v>10052</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5756</v>
+        <v>6325</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16316</v>
+        <v>17534</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01613027580395444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009236019808266048</v>
+        <v>0.01014858100445199</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02618074856554408</v>
+        <v>0.02813495598180089</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -7157,19 +7157,19 @@
         <v>17303</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10614</v>
+        <v>10362</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27156</v>
+        <v>26009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01390896289249787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00853211256628382</v>
+        <v>0.008329656025360378</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02182868111660638</v>
+        <v>0.0209068426683995</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>613586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>606589</v>
+        <v>605508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>618156</v>
+        <v>618073</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9883207789346454</v>
+        <v>0.9883207789346456</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9770497657277458</v>
+        <v>0.9753096806783481</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956821980548675</v>
+        <v>0.9955487094048497</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>834</v>
@@ -7207,19 +7207,19 @@
         <v>613141</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>606877</v>
+        <v>605659</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>617437</v>
+        <v>616868</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9838697241960456</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9738192514344562</v>
+        <v>0.9718650440181988</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9907639801917341</v>
+        <v>0.9898514189955481</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1374</v>
@@ -7228,19 +7228,19 @@
         <v>1226726</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1216873</v>
+        <v>1218020</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1233415</v>
+        <v>1233667</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9860910371075022</v>
+        <v>0.986091037107502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9781713188833938</v>
+        <v>0.9790931573316006</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9914678874337162</v>
+        <v>0.9916703439746397</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>17913</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10462</v>
+        <v>10365</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28328</v>
+        <v>26927</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02556808657468608</v>
+        <v>0.02556808657468607</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01493233326793888</v>
+        <v>0.01479406982855176</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04043316995920847</v>
+        <v>0.03843370702909649</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -7353,19 +7353,19 @@
         <v>18458</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12811</v>
+        <v>12650</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27123</v>
+        <v>26812</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02504802785730905</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01738519181711934</v>
+        <v>0.01716746176167643</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03680804908456525</v>
+        <v>0.03638541505546232</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -7374,19 +7374,19 @@
         <v>36371</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26705</v>
+        <v>26324</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48415</v>
+        <v>48988</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02530149649410681</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01857718528772324</v>
+        <v>0.01831211178218339</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03367983687954455</v>
+        <v>0.03407825470568763</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>682704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>672289</v>
+        <v>673690</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>690155</v>
+        <v>690252</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.974431913425314</v>
+        <v>0.9744319134253139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9595668300407911</v>
+        <v>0.9615662929709032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9850676667320609</v>
+        <v>0.9852059301714481</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1112</v>
@@ -7424,19 +7424,19 @@
         <v>718428</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>709763</v>
+        <v>710074</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>724075</v>
+        <v>724236</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9749519721426908</v>
+        <v>0.974951972142691</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9631919509154346</v>
+        <v>0.9636145849445379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9826148081828805</v>
+        <v>0.9828325382383236</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1760</v>
@@ -7445,19 +7445,19 @@
         <v>1401133</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1389089</v>
+        <v>1388516</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1410799</v>
+        <v>1411180</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9746985035058932</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9663201631204559</v>
+        <v>0.9659217452943125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9814228147122769</v>
+        <v>0.9816878882178167</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>23071</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15177</v>
+        <v>15092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34113</v>
+        <v>34983</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03786219940714595</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02490714564705794</v>
+        <v>0.02476693376116753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0559831121724449</v>
+        <v>0.05740997255564335</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -7570,19 +7570,19 @@
         <v>23532</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16823</v>
+        <v>17024</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32513</v>
+        <v>32542</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03864924455775272</v>
+        <v>0.03864924455775273</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02762983632939209</v>
+        <v>0.02796050389765879</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05340057477737148</v>
+        <v>0.05344819609856846</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -7591,19 +7591,19 @@
         <v>46603</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35565</v>
+        <v>36409</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60146</v>
+        <v>59662</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03825556335792134</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02919493559815101</v>
+        <v>0.02988787310477159</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04937265801931406</v>
+        <v>0.04897519406849172</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>586275</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>575233</v>
+        <v>574363</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>594169</v>
+        <v>594254</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.962137800592854</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.944016887827555</v>
+        <v>0.9425900274443568</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.975092854352942</v>
+        <v>0.9752330662388325</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>966</v>
@@ -7641,19 +7641,19 @@
         <v>585323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>576342</v>
+        <v>576313</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>592032</v>
+        <v>591831</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9613507554422471</v>
+        <v>0.9613507554422472</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9465994252226285</v>
+        <v>0.9465518039014315</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.972370163670608</v>
+        <v>0.9720394961023412</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1606</v>
@@ -7662,19 +7662,19 @@
         <v>1171599</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1158056</v>
+        <v>1158540</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1182637</v>
+        <v>1181793</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9617444366420785</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.950627341980686</v>
+        <v>0.9510248059315082</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9708050644018492</v>
+        <v>0.9701121268952283</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>13754</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8256</v>
+        <v>8510</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20829</v>
+        <v>21859</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03378688012459961</v>
+        <v>0.03378688012459962</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02028109996921838</v>
+        <v>0.02090517626143669</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05116679835740785</v>
+        <v>0.05369788122153335</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -7787,19 +7787,19 @@
         <v>20574</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14422</v>
+        <v>14565</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27652</v>
+        <v>27986</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04684737772582197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03284044834251258</v>
+        <v>0.03316605206775659</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06296445679336612</v>
+        <v>0.06372626464999812</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -7808,19 +7808,19 @@
         <v>34328</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26578</v>
+        <v>25897</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44748</v>
+        <v>45292</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04056473136770652</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03140685715925122</v>
+        <v>0.03060243666299153</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05287812211285668</v>
+        <v>0.05352053117361687</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>393326</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>386251</v>
+        <v>385221</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>398824</v>
+        <v>398570</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9662131198754004</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9488332016425922</v>
+        <v>0.9463021187784666</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9797189000307817</v>
+        <v>0.9790948237385632</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>792</v>
@@ -7858,19 +7858,19 @@
         <v>418592</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>411514</v>
+        <v>411180</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>424744</v>
+        <v>424601</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9531526222741781</v>
+        <v>0.953152622274178</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9370355432066335</v>
+        <v>0.936273735350002</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9671595516574873</v>
+        <v>0.9668339479322434</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1344</v>
@@ -7879,19 +7879,19 @@
         <v>811918</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>801498</v>
+        <v>800954</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>819668</v>
+        <v>820349</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9594352686322933</v>
+        <v>0.9594352686322934</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9471218778871434</v>
+        <v>0.9464794688263831</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9685931428407487</v>
+        <v>0.9693975633370085</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>11036</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6220</v>
+        <v>5978</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19206</v>
+        <v>18052</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03557601501710414</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02005131290766611</v>
+        <v>0.01927017334468336</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0619150158382864</v>
+        <v>0.05819456597607717</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -8004,19 +8004,19 @@
         <v>34693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26827</v>
+        <v>27178</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44019</v>
+        <v>44764</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.074671884816535</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05774073882809384</v>
+        <v>0.0584974220079232</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09474346196514707</v>
+        <v>0.09634808015201325</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -8025,19 +8025,19 @@
         <v>45729</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35077</v>
+        <v>36440</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56733</v>
+        <v>58238</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05901963908320193</v>
+        <v>0.05901963908320192</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04527178699260694</v>
+        <v>0.04703130335913976</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07322201395601194</v>
+        <v>0.07516464079149018</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>299162</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>290992</v>
+        <v>292146</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>303978</v>
+        <v>304220</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9644239849828956</v>
+        <v>0.9644239849828958</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9380849841617133</v>
+        <v>0.9418054340239229</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.979948687092334</v>
+        <v>0.9807298266553166</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>822</v>
@@ -8075,19 +8075,19 @@
         <v>429916</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>420590</v>
+        <v>419845</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>437782</v>
+        <v>437431</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.925328115183465</v>
+        <v>0.9253281151834649</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9052565380348528</v>
+        <v>0.9036519198479868</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9422592611719062</v>
+        <v>0.9415025779920768</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1266</v>
@@ -8096,19 +8096,19 @@
         <v>729078</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>718074</v>
+        <v>716569</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>739730</v>
+        <v>738367</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.940980360916798</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9267779860439881</v>
+        <v>0.9248353592085099</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9547282130073932</v>
+        <v>0.9529686966408603</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>88005</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>69604</v>
+        <v>70157</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>108360</v>
+        <v>108918</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02491096301966643</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01970235592698141</v>
+        <v>0.01985882504106729</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03067287424342505</v>
+        <v>0.03083081296748346</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>182</v>
@@ -8221,19 +8221,19 @@
         <v>120685</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>102202</v>
+        <v>103520</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>139379</v>
+        <v>142315</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0322951453435766</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02734904724586738</v>
+        <v>0.02770159604796114</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03729762010274063</v>
+        <v>0.03808307080016007</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>268</v>
@@ -8242,19 +8242,19 @@
         <v>208690</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>183553</v>
+        <v>183404</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>238189</v>
+        <v>237132</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02870675787825546</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02524895842692105</v>
+        <v>0.02522849162191677</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03276450335864829</v>
+        <v>0.03261909199049699</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3444757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3424402</v>
+        <v>3423844</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3463158</v>
+        <v>3462605</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9750890369803338</v>
+        <v>0.9750890369803336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9693271257565752</v>
+        <v>0.9691691870325166</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9802976440730187</v>
+        <v>0.9801411749589329</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5185</v>
@@ -8292,19 +8292,19 @@
         <v>3616269</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3597575</v>
+        <v>3594639</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3634752</v>
+        <v>3633434</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9677048546564235</v>
+        <v>0.9677048546564233</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9627023798972592</v>
+        <v>0.96191692919984</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9726509527541323</v>
+        <v>0.9722984039520387</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8475</v>
@@ -8313,19 +8313,19 @@
         <v>7061026</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7031527</v>
+        <v>7032584</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7086163</v>
+        <v>7086312</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9712932421217446</v>
+        <v>0.9712932421217445</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9672354966413519</v>
+        <v>0.9673809080095029</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9747510415730789</v>
+        <v>0.9747715083780835</v>
       </c>
     </row>
     <row r="27">
